--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2639213.163494927</v>
+        <v>-2641784.850110546</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077785</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.1696012574539</v>
       </c>
       <c r="E11" t="n">
-        <v>241.1673460200743</v>
+        <v>343.4169297090327</v>
       </c>
       <c r="F11" t="n">
         <v>368.3626053784824</v>
@@ -1388,7 +1388,7 @@
         <v>264.6979105187345</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.45111478108499</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>89.81790519125261</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>152.2844550291318</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.2388181069059</v>
       </c>
       <c r="W11" t="n">
-        <v>310.727528354184</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,10 +1461,10 @@
         <v>106.5557720301548</v>
       </c>
       <c r="G12" t="n">
-        <v>96.93551735164887</v>
+        <v>96.93551735164884</v>
       </c>
       <c r="H12" t="n">
-        <v>55.42454814858037</v>
+        <v>55.42454814858034</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>97.97911993495501</v>
+        <v>97.97911993495497</v>
       </c>
       <c r="T12" t="n">
-        <v>154.0148842394094</v>
+        <v>154.0148842394093</v>
       </c>
       <c r="U12" t="n">
         <v>187.3032996487765</v>
@@ -1509,7 +1509,7 @@
         <v>194.2871467861962</v>
       </c>
       <c r="W12" t="n">
-        <v>213.1815427976906</v>
+        <v>213.1815427976905</v>
       </c>
       <c r="X12" t="n">
         <v>167.2595448402484</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>141.3185398187082</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.7333807353988</v>
       </c>
       <c r="D13" t="n">
         <v>110.1020326549833</v>
@@ -1537,16 +1537,16 @@
         <v>107.9205222833401</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9076076597022</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>127.8892039961242</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>109.5919900612542</v>
       </c>
       <c r="I13" t="n">
-        <v>69.17146931820157</v>
+        <v>69.17146931820153</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.36263369052342</v>
+        <v>67.36263369052335</v>
       </c>
       <c r="S13" t="n">
-        <v>157.8228104620589</v>
+        <v>32.25607347520744</v>
       </c>
       <c r="T13" t="n">
-        <v>182.6456267961471</v>
+        <v>182.645626796147</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7189525387652</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.624202960599</v>
+        <v>213.6242029605989</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>248.0095579733619</v>
       </c>
       <c r="X13" t="n">
         <v>187.1962150258081</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.0501903348908</v>
+        <v>180.0712129888657</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>256.0943240240914</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.063489409696899</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.67432142494678</v>
+        <v>70.67432142494677</v>
       </c>
       <c r="T14" t="n">
         <v>165.4045297763911</v>
@@ -1664,16 +1664,16 @@
         <v>212.4817315956729</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>289.2388181069059</v>
       </c>
       <c r="W14" t="n">
-        <v>98.32787976060609</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>331.21766031524</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928245</v>
+        <v>153.7500705368271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1777,13 +1777,13 @@
         <v>106.9076076597022</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5123678957992</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>106.2415745510917</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660904</v>
+        <v>57.83898004660903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681828</v>
+        <v>50.41871230681826</v>
       </c>
       <c r="S16" t="n">
         <v>151.2555849682128</v>
       </c>
       <c r="T16" t="n">
-        <v>181.0355089129401</v>
+        <v>106.8142687238687</v>
       </c>
       <c r="U16" t="n">
         <v>247.6983978423838</v>
       </c>
       <c r="V16" t="n">
-        <v>118.1321694268215</v>
+        <v>213.6242029605989</v>
       </c>
       <c r="W16" t="n">
-        <v>248.009557973362</v>
+        <v>248.0095579733619</v>
       </c>
       <c r="X16" t="n">
         <v>187.1962150258081</v>
@@ -1853,7 +1853,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G17" t="n">
         <v>313.2370054253485</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U17" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W17" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V19" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
         <v>128.0249351609322</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2217,7 +2217,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115152</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329982</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851025</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,19 +2716,19 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333631</v>
+        <v>89.44419315333633</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169313</v>
+        <v>87.26268278169314</v>
       </c>
       <c r="F28" t="n">
-        <v>86.2497681580552</v>
+        <v>86.24976815805522</v>
       </c>
       <c r="G28" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944474</v>
+        <v>85.58373504944475</v>
       </c>
       <c r="I28" t="n">
         <v>37.18114054496207</v>
@@ -2761,25 +2761,25 @@
         <v>29.7608728051713</v>
       </c>
       <c r="S28" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T28" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U28" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V28" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W28" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X28" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329982</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883147</v>
+        <v>172.7084989883156</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,19 +2953,19 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333631</v>
+        <v>89.44419315333633</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169313</v>
+        <v>87.26268278169314</v>
       </c>
       <c r="F31" t="n">
-        <v>86.2497681580552</v>
+        <v>86.24976815805522</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944474</v>
+        <v>85.58373504944475</v>
       </c>
       <c r="I31" t="n">
         <v>37.18114054496207</v>
@@ -2998,25 +2998,25 @@
         <v>29.7608728051713</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U31" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X31" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329974</v>
+        <v>50.01648192329969</v>
       </c>
       <c r="T32" t="n">
-        <v>144.7466902747441</v>
+        <v>144.746690274744</v>
       </c>
       <c r="U32" t="n">
         <v>191.8238920940259</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773034</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3205,7 @@
         <v>85.58373504944467</v>
       </c>
       <c r="I34" t="n">
-        <v>37.181140544962</v>
+        <v>37.18114054496197</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.76087280517123</v>
+        <v>29.7608728051712</v>
       </c>
       <c r="S34" t="n">
         <v>130.5977454665658</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007073</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052273</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621568</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007103</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383249</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052303</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010755</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846436</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482644</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092342</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621597</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333709</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.162369193595</v>
+        <v>1764.55716547614</v>
       </c>
       <c r="C11" t="n">
-        <v>1306.102317266546</v>
+        <v>1764.55716547614</v>
       </c>
       <c r="D11" t="n">
-        <v>1306.102317266546</v>
+        <v>1445.193931882753</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.49893744829</v>
+        <v>1098.308144297871</v>
       </c>
       <c r="F11" t="n">
-        <v>690.4154976720451</v>
+        <v>726.224704521626</v>
       </c>
       <c r="G11" t="n">
-        <v>313.3969353148565</v>
+        <v>349.2061421644372</v>
       </c>
       <c r="H11" t="n">
-        <v>46.02530852825591</v>
+        <v>81.83451537783677</v>
       </c>
       <c r="I11" t="n">
-        <v>46.02530852825591</v>
+        <v>46.02530852825596</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3157454550861</v>
+        <v>164.3157454550863</v>
       </c>
       <c r="K11" t="n">
-        <v>392.3409650219221</v>
+        <v>392.3409650219225</v>
       </c>
       <c r="L11" t="n">
-        <v>712.1281751217048</v>
+        <v>712.1281751217057</v>
       </c>
       <c r="M11" t="n">
-        <v>1099.622500200637</v>
+        <v>1099.622500200638</v>
       </c>
       <c r="N11" t="n">
-        <v>1498.000696951024</v>
+        <v>1498.000696951025</v>
       </c>
       <c r="O11" t="n">
-        <v>1860.842670219297</v>
+        <v>1860.842670219299</v>
       </c>
       <c r="P11" t="n">
-        <v>2136.018898899075</v>
+        <v>2136.018898899077</v>
       </c>
       <c r="Q11" t="n">
-        <v>2294.492040045685</v>
+        <v>2294.492040045687</v>
       </c>
       <c r="R11" t="n">
-        <v>2301.265426412796</v>
+        <v>2301.265426412798</v>
       </c>
       <c r="S11" t="n">
-        <v>2301.265426412796</v>
+        <v>2210.540269653956</v>
       </c>
       <c r="T11" t="n">
-        <v>2301.265426412796</v>
+        <v>2210.540269653956</v>
       </c>
       <c r="U11" t="n">
-        <v>2301.265426412796</v>
+        <v>2056.717587806349</v>
       </c>
       <c r="V11" t="n">
-        <v>2301.265426412796</v>
+        <v>1764.55716547614</v>
       </c>
       <c r="W11" t="n">
-        <v>1987.399236156044</v>
+        <v>1764.55716547614</v>
       </c>
       <c r="X11" t="n">
-        <v>1987.399236156044</v>
+        <v>1764.55716547614</v>
       </c>
       <c r="Y11" t="n">
-        <v>1636.162369193595</v>
+        <v>1764.55716547614</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>673.4739564565917</v>
+        <v>673.4739564565915</v>
       </c>
       <c r="C12" t="n">
-        <v>537.9233921888274</v>
+        <v>537.9233921888272</v>
       </c>
       <c r="D12" t="n">
-        <v>427.8914475409388</v>
+        <v>427.8914475409387</v>
       </c>
       <c r="E12" t="n">
         <v>307.5564575488459</v>
       </c>
       <c r="F12" t="n">
-        <v>199.9243645890936</v>
+        <v>199.9243645890935</v>
       </c>
       <c r="G12" t="n">
         <v>102.009700597529</v>
       </c>
       <c r="H12" t="n">
-        <v>46.02530852825592</v>
+        <v>46.02530852825596</v>
       </c>
       <c r="I12" t="n">
-        <v>50.20351422082515</v>
+        <v>50.20351422082523</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8386411268328</v>
+        <v>101.8386411268329</v>
       </c>
       <c r="K12" t="n">
-        <v>306.3744280157309</v>
+        <v>306.3744280157313</v>
       </c>
       <c r="L12" t="n">
-        <v>585.5356066074166</v>
+        <v>576.452363238981</v>
       </c>
       <c r="M12" t="n">
-        <v>958.1889923915805</v>
+        <v>910.9774430635484</v>
       </c>
       <c r="N12" t="n">
-        <v>1315.97660058441</v>
+        <v>1268.765051256378</v>
       </c>
       <c r="O12" t="n">
-        <v>1621.062567399181</v>
+        <v>1593.292444944558</v>
       </c>
       <c r="P12" t="n">
-        <v>1884.716192338305</v>
+        <v>1856.946069883682</v>
       </c>
       <c r="Q12" t="n">
-        <v>1985.554699161708</v>
+        <v>1995.912882666682</v>
       </c>
       <c r="R12" t="n">
         <v>1995.912882666682</v>
@@ -5160,10 +5160,10 @@
         <v>1140.593697407058</v>
       </c>
       <c r="X12" t="n">
-        <v>971.6446622148883</v>
+        <v>971.6446622148881</v>
       </c>
       <c r="Y12" t="n">
-        <v>802.7868284632971</v>
+        <v>802.7868284632968</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>683.9877590066454</v>
+        <v>576.8529802991428</v>
       </c>
       <c r="C13" t="n">
-        <v>683.9877590066454</v>
+        <v>446.8192623845986</v>
       </c>
       <c r="D13" t="n">
-        <v>572.7735846076723</v>
+        <v>335.6050879856256</v>
       </c>
       <c r="E13" t="n">
-        <v>463.7629560386418</v>
+        <v>226.594459416595</v>
       </c>
       <c r="F13" t="n">
-        <v>355.7754735540942</v>
+        <v>226.594459416595</v>
       </c>
       <c r="G13" t="n">
-        <v>226.5944594165951</v>
+        <v>226.594459416595</v>
       </c>
       <c r="H13" t="n">
         <v>115.8954795567423</v>
       </c>
       <c r="I13" t="n">
-        <v>46.02530852825592</v>
+        <v>46.02530852825596</v>
       </c>
       <c r="J13" t="n">
-        <v>102.9003577647388</v>
+        <v>102.900357764739</v>
       </c>
       <c r="K13" t="n">
-        <v>301.6721584138277</v>
+        <v>301.672158413828</v>
       </c>
       <c r="L13" t="n">
-        <v>600.8952645594817</v>
+        <v>600.8952645594821</v>
       </c>
       <c r="M13" t="n">
-        <v>924.7005522174877</v>
+        <v>924.7005522174888</v>
       </c>
       <c r="N13" t="n">
-        <v>1247.147696192009</v>
+        <v>1247.14769619201</v>
       </c>
       <c r="O13" t="n">
-        <v>1531.874171881338</v>
+        <v>1531.874171881339</v>
       </c>
       <c r="P13" t="n">
-        <v>1757.489130966077</v>
+        <v>1757.489130966079</v>
       </c>
       <c r="Q13" t="n">
-        <v>1841.988397197345</v>
+        <v>1841.988397197346</v>
       </c>
       <c r="R13" t="n">
-        <v>1773.945332863482</v>
+        <v>1773.945332863484</v>
       </c>
       <c r="S13" t="n">
-        <v>1614.528352598777</v>
+        <v>1741.363440464285</v>
       </c>
       <c r="T13" t="n">
-        <v>1430.037820481456</v>
+        <v>1556.872908346964</v>
       </c>
       <c r="U13" t="n">
-        <v>1179.816656300886</v>
+        <v>1556.872908346964</v>
       </c>
       <c r="V13" t="n">
-        <v>964.0346331083615</v>
+        <v>1341.09088515444</v>
       </c>
       <c r="W13" t="n">
-        <v>964.0346331083615</v>
+        <v>1090.576180130842</v>
       </c>
       <c r="X13" t="n">
-        <v>774.9475472237068</v>
+        <v>901.4890942461872</v>
       </c>
       <c r="Y13" t="n">
-        <v>683.9877590066454</v>
+        <v>719.5989801160198</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1739.695697906209</v>
+        <v>1742.790131653377</v>
       </c>
       <c r="C14" t="n">
-        <v>1739.695697906209</v>
+        <v>1742.790131653377</v>
       </c>
       <c r="D14" t="n">
-        <v>1420.332464312821</v>
+        <v>1423.426898059989</v>
       </c>
       <c r="E14" t="n">
-        <v>1073.44667672794</v>
+        <v>1076.541110475108</v>
       </c>
       <c r="F14" t="n">
-        <v>701.3632369516947</v>
+        <v>704.457670698863</v>
       </c>
       <c r="G14" t="n">
-        <v>325.1932518100535</v>
+        <v>328.2876855572221</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>69.606550179352</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.217618149629</v>
+        <v>3254.217618149628</v>
       </c>
       <c r="T14" t="n">
-        <v>3087.142335547214</v>
+        <v>3087.142335547213</v>
       </c>
       <c r="U14" t="n">
-        <v>2872.514323834413</v>
+        <v>2872.514323834412</v>
       </c>
       <c r="V14" t="n">
-        <v>2872.514323834413</v>
+        <v>2580.353901504204</v>
       </c>
       <c r="W14" t="n">
-        <v>2773.193233167134</v>
+        <v>2580.353901504204</v>
       </c>
       <c r="X14" t="n">
-        <v>2438.629939919417</v>
+        <v>2245.790608256487</v>
       </c>
       <c r="Y14" t="n">
-        <v>2087.393072956968</v>
+        <v>2090.487506704136</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.981703579489</v>
+        <v>690.4960537363498</v>
       </c>
       <c r="C16" t="n">
-        <v>581.9479856649448</v>
+        <v>560.4623358218056</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7338112659718</v>
+        <v>449.2481614228325</v>
       </c>
       <c r="E16" t="n">
-        <v>361.7231826969415</v>
+        <v>340.2375328538021</v>
       </c>
       <c r="F16" t="n">
-        <v>253.7357002123938</v>
+        <v>232.2500503692545</v>
       </c>
       <c r="G16" t="n">
-        <v>124.9353286004754</v>
+        <v>232.2500503692545</v>
       </c>
       <c r="H16" t="n">
         <v>124.9353286004754</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>149.7630548387154</v>
+        <v>149.7630548387155</v>
       </c>
       <c r="K16" t="n">
         <v>391.8785437471886</v>
@@ -5452,34 +5452,34 @@
         <v>1845.846587259899</v>
       </c>
       <c r="P16" t="n">
-        <v>2116.582393653155</v>
+        <v>2116.582393653154</v>
       </c>
       <c r="Q16" t="n">
         <v>2232.320995765266</v>
       </c>
       <c r="R16" t="n">
-        <v>2181.393003536157</v>
+        <v>2181.393003536156</v>
       </c>
       <c r="S16" t="n">
         <v>2028.609584376346</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.745433959235</v>
+        <v>1920.716383645165</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.545032098241</v>
+        <v>1670.515981784171</v>
       </c>
       <c r="V16" t="n">
-        <v>1476.219608434786</v>
+        <v>1454.733958591647</v>
       </c>
       <c r="W16" t="n">
-        <v>1225.704903411188</v>
+        <v>1204.219253568049</v>
       </c>
       <c r="X16" t="n">
-        <v>1036.617817526533</v>
+        <v>1015.132167683394</v>
       </c>
       <c r="Y16" t="n">
-        <v>854.727703396366</v>
+        <v>833.2420535532268</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5543,10 +5543,10 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
         <v>2819.429779746127</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G19" t="n">
         <v>114.0578686404822</v>
@@ -5668,28 +5668,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K19" t="n">
-        <v>273.3535972631172</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L19" t="n">
-        <v>429.0634411854745</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M19" t="n">
-        <v>693.2037955104962</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N19" t="n">
-        <v>961.2205055661677</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O19" t="n">
-        <v>1195.846727810181</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P19" t="n">
-        <v>1380.346898434619</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q19" t="n">
         <v>1489.975538818984</v>
@@ -5698,7 +5698,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T19" t="n">
         <v>1273.865908363023</v>
@@ -5707,16 +5707,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5774,13 +5774,13 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3313.98658771011</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U20" t="n">
         <v>3051.821232515856</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064548</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5905,31 +5905,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K22" t="n">
-        <v>262.1948921089729</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L22" t="n">
-        <v>514.612609057154</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M22" t="n">
-        <v>778.7529633821757</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N22" t="n">
-        <v>1046.769673437847</v>
+        <v>962.5394823862517</v>
       </c>
       <c r="O22" t="n">
-        <v>1281.395895681861</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P22" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R22" t="n">
         <v>1489.975538818984</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E23" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,31 +6084,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
         <v>1109.759191501176</v>
@@ -6136,31 +6136,31 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J25" t="n">
-        <v>176.3617198155309</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K25" t="n">
-        <v>371.3804471090252</v>
+        <v>350.2377232523197</v>
       </c>
       <c r="L25" t="n">
-        <v>623.7981640572062</v>
+        <v>602.6554402005008</v>
       </c>
       <c r="M25" t="n">
-        <v>887.9385183822278</v>
+        <v>866.7957945255225</v>
       </c>
       <c r="N25" t="n">
-        <v>1059.247355412075</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O25" t="n">
-        <v>1293.873577656089</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P25" t="n">
         <v>1468.389729577966</v>
@@ -6203,58 +6203,58 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C26" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174435</v>
       </c>
       <c r="D26" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090402</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667531</v>
       </c>
       <c r="H26" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703157</v>
+        <v>95.04551302703189</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522848</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083583</v>
+        <v>734.9031518083585</v>
       </c>
       <c r="L26" t="n">
-        <v>1244.516932122994</v>
+        <v>1244.516932122995</v>
       </c>
       <c r="M26" t="n">
         <v>1836.628403861146</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.986787986156</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O26" t="n">
         <v>3003.53882593172</v>
       </c>
       <c r="P26" t="n">
-        <v>3456.892759355124</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q26" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R26" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S26" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T26" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U26" t="n">
         <v>3490.86333766666</v>
@@ -6269,7 +6269,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849256</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037986</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425473</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370918</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F27" t="n">
-        <v>323.4993925639768</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G27" t="n">
-        <v>187.1362923965949</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H27" t="n">
         <v>96.63439803446335</v>
       </c>
       <c r="I27" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K27" t="n">
-        <v>409.5685749069656</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L27" t="n">
-        <v>776.2667352196308</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M27" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.066103996401</v>
+        <v>1697.066103996402</v>
       </c>
       <c r="O27" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P27" t="n">
-        <v>2418.526974890558</v>
+        <v>2418.526974890559</v>
       </c>
       <c r="Q27" t="n">
-        <v>2576.168532537158</v>
+        <v>2576.168532537159</v>
       </c>
       <c r="R27" t="n">
-        <v>2576.024179129673</v>
+        <v>2576.024179129674</v>
       </c>
       <c r="S27" t="n">
-        <v>2446.586292623153</v>
+        <v>2446.586292623154</v>
       </c>
       <c r="T27" t="n">
-        <v>2253.943292301009</v>
+        <v>2253.94329230101</v>
       </c>
       <c r="U27" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V27" t="n">
-        <v>1790.723337203682</v>
+        <v>1790.723337203683</v>
       </c>
       <c r="W27" t="n">
-        <v>1536.48598047548</v>
+        <v>1536.485980475481</v>
       </c>
       <c r="X27" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y27" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222594</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029784</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810661</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F28" t="n">
         <v>309.5658983436367</v>
@@ -6379,40 +6379,40 @@
         <v>115.1838140571751</v>
       </c>
       <c r="I28" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J28" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K28" t="n">
-        <v>304.9198483735656</v>
+        <v>338.2197272830617</v>
       </c>
       <c r="L28" t="n">
-        <v>590.0221099638793</v>
+        <v>713.3590927977851</v>
       </c>
       <c r="M28" t="n">
-        <v>992.7587226296555</v>
+        <v>939.3711411632103</v>
       </c>
       <c r="N28" t="n">
-        <v>1392.746666401747</v>
+        <v>1339.359084935302</v>
       </c>
       <c r="O28" t="n">
-        <v>1750.655832388388</v>
+        <v>1685.966303594415</v>
       </c>
       <c r="P28" t="n">
-        <v>2041.842899888275</v>
+        <v>1977.153371094301</v>
       </c>
       <c r="Q28" t="n">
         <v>2113.343234313043</v>
       </c>
       <c r="R28" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U28" t="n">
         <v>1560.03328883449</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750676</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920183</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1646.478165174435</v>
       </c>
       <c r="D29" t="n">
-        <v>1347.981436128165</v>
+        <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
         <v>1021.962153090402</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612753</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667532</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
         <v>77.62710643600128</v>
@@ -6500,10 +6500,10 @@
         <v>3219.56941988357</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173936</v>
+        <v>2926.569734173937</v>
       </c>
       <c r="X29" t="n">
-        <v>2612.872945473337</v>
+        <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
         <v>2282.502583058007</v>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849256</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C30" t="n">
         <v>778.2058152037996</v>
@@ -6534,58 +6534,58 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I30" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K30" t="n">
-        <v>409.5685749069656</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196308</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.066103996401</v>
+        <v>1697.066103996402</v>
       </c>
       <c r="O30" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P30" t="n">
-        <v>2418.526974890558</v>
+        <v>2418.526974890559</v>
       </c>
       <c r="Q30" t="n">
-        <v>2576.168532537158</v>
+        <v>2576.168532537159</v>
       </c>
       <c r="R30" t="n">
-        <v>2576.024179129673</v>
+        <v>2576.024179129674</v>
       </c>
       <c r="S30" t="n">
-        <v>2446.586292623153</v>
+        <v>2446.586292623154</v>
       </c>
       <c r="T30" t="n">
-        <v>2253.943292301009</v>
+        <v>2253.94329230101</v>
       </c>
       <c r="U30" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V30" t="n">
-        <v>1790.723337203682</v>
+        <v>1790.723337203683</v>
       </c>
       <c r="W30" t="n">
-        <v>1536.48598047548</v>
+        <v>1536.485980475481</v>
       </c>
       <c r="X30" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y30" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="31">
@@ -6601,10 +6601,10 @@
         <v>575.1786701548333</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029784</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810661</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F31" t="n">
         <v>309.5658983436367</v>
@@ -6619,25 +6619,25 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J31" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K31" t="n">
-        <v>304.9198483735656</v>
+        <v>443.8960559642678</v>
       </c>
       <c r="L31" t="n">
-        <v>680.0592138882889</v>
+        <v>686.7438308721289</v>
       </c>
       <c r="M31" t="n">
-        <v>1082.795826554065</v>
+        <v>1089.480443537905</v>
       </c>
       <c r="N31" t="n">
-        <v>1482.783770326157</v>
+        <v>1489.468387309997</v>
       </c>
       <c r="O31" t="n">
-        <v>1750.655832388388</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P31" t="n">
-        <v>2041.842899888275</v>
+        <v>1977.153371094301</v>
       </c>
       <c r="Q31" t="n">
         <v>2113.343234313043</v>
@@ -6695,28 +6695,28 @@
         <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703192</v>
+        <v>95.04551302703197</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522849</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083584</v>
+        <v>734.9031518083589</v>
       </c>
       <c r="L32" t="n">
-        <v>1244.516932122994</v>
+        <v>1244.516932122995</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861147</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986157</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.538825931719</v>
+        <v>3003.538825931721</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355124</v>
+        <v>3456.892759355127</v>
       </c>
       <c r="Q32" t="n">
         <v>3763.758688177034</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849262</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037993</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425481</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370926</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639776</v>
       </c>
       <c r="G33" t="n">
-        <v>187.1362923965958</v>
+        <v>187.1362923965962</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446369</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266184</v>
       </c>
       <c r="K33" t="n">
-        <v>409.5685749069656</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L33" t="n">
         <v>776.2667352196308</v>
@@ -6795,34 +6795,34 @@
         <v>2108.027383414456</v>
       </c>
       <c r="P33" t="n">
-        <v>2418.526974890558</v>
+        <v>2418.526974890559</v>
       </c>
       <c r="Q33" t="n">
-        <v>2576.168532537158</v>
+        <v>2576.168532537159</v>
       </c>
       <c r="R33" t="n">
-        <v>2576.024179129673</v>
+        <v>2576.024179129674</v>
       </c>
       <c r="S33" t="n">
-        <v>2446.586292623153</v>
+        <v>2446.586292623154</v>
       </c>
       <c r="T33" t="n">
-        <v>2253.943292301009</v>
+        <v>2253.94329230101</v>
       </c>
       <c r="U33" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V33" t="n">
-        <v>1790.723337203682</v>
+        <v>1790.723337203683</v>
       </c>
       <c r="W33" t="n">
-        <v>1536.48598047548</v>
+        <v>1536.485980475481</v>
       </c>
       <c r="X33" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="34">
@@ -6838,7 +6838,7 @@
         <v>575.1786701548328</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029781</v>
+        <v>484.831000302978</v>
       </c>
       <c r="E34" t="n">
         <v>396.6868762810658</v>
@@ -6859,22 +6859,22 @@
         <v>148.0294270396681</v>
       </c>
       <c r="K34" t="n">
-        <v>410.5961770547717</v>
+        <v>410.5961770547719</v>
       </c>
       <c r="L34" t="n">
-        <v>785.7355425694951</v>
+        <v>686.743830872126</v>
       </c>
       <c r="M34" t="n">
-        <v>1011.74759093492</v>
+        <v>1089.480443537902</v>
       </c>
       <c r="N34" t="n">
-        <v>1392.746666401746</v>
+        <v>1489.468387309995</v>
       </c>
       <c r="O34" t="n">
-        <v>1750.655832388386</v>
+        <v>1685.966303594412</v>
       </c>
       <c r="P34" t="n">
-        <v>2041.842899888273</v>
+        <v>1977.153371094299</v>
       </c>
       <c r="Q34" t="n">
         <v>2113.343234313041</v>
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6950,34 +6950,34 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,34 +7032,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>370.0614702889411</v>
+        <v>358.9027651347972</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371222</v>
+        <v>611.3204820829783</v>
       </c>
       <c r="M37" t="n">
-        <v>886.6195415621439</v>
+        <v>875.460836408</v>
       </c>
       <c r="N37" t="n">
-        <v>1057.928378591991</v>
+        <v>1143.477546463671</v>
       </c>
       <c r="O37" t="n">
-        <v>1292.554600836005</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P37" t="n">
-        <v>1391.505603588764</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218241</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,7 +7257,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7281,16 +7281,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.51949026613</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170914</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630281</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954469</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889413</v>
+        <v>262.1948921089731</v>
       </c>
       <c r="L40" t="n">
-        <v>622.4791872371227</v>
+        <v>514.6126090571543</v>
       </c>
       <c r="M40" t="n">
-        <v>886.6195415621446</v>
+        <v>778.7529633821759</v>
       </c>
       <c r="N40" t="n">
-        <v>1057.928378591992</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O40" t="n">
-        <v>1195.846727810182</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P40" t="n">
-        <v>1391.505603588765</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.421422430465</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673479</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431742</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734876</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464963</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307321</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912101</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170933</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630297</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245372</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226749</v>
       </c>
       <c r="J43" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155307</v>
       </c>
       <c r="K43" t="n">
-        <v>370.061470288941</v>
+        <v>358.9027651347993</v>
       </c>
       <c r="L43" t="n">
-        <v>525.7713142112982</v>
+        <v>611.3204820829803</v>
       </c>
       <c r="M43" t="n">
-        <v>693.203795510496</v>
+        <v>778.7529633821781</v>
       </c>
       <c r="N43" t="n">
-        <v>961.2205055661673</v>
+        <v>1046.769673437849</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656037</v>
+        <v>1281.395895681863</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.346898434619</v>
+        <v>1380.346898434621</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219656</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304681</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673507</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431766</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734898</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
         <v>894.139768046497</v>
@@ -7640,58 +7640,58 @@
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,7 +7743,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
         <v>67.83109325226764</v>
@@ -7807,19 +7807,19 @@
         <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090252</v>
+        <v>350.2377232523195</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313824</v>
+        <v>602.6554402005007</v>
       </c>
       <c r="M46" t="n">
-        <v>791.2306453564041</v>
+        <v>866.7957945255224</v>
       </c>
       <c r="N46" t="n">
         <v>1038.10463155537</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799383</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
         <v>1371.681856552142</v>
@@ -7831,7 +7831,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363023</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>71.52813192093856</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>151.6255579542376</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>-3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10267,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>28.84683224169356</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -10282,13 +10282,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>72.09509674526663</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10510,22 +10510,22 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>62.48307356441353</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>152.637041788637</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.54273168673645</v>
+        <v>14.54273168673646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>344.2204013002515</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>326.7594514077785</v>
       </c>
       <c r="D11" t="n">
-        <v>316.1696012574539</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>102.2495836889585</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>35.45111478108507</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.81790519125269</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>169.0820300698416</v>
       </c>
       <c r="U11" t="n">
-        <v>212.5489389111443</v>
+        <v>60.26448388201252</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>310.727528354184</v>
       </c>
       <c r="X11" t="n">
         <v>331.21766031524</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>347.7244982928245</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187082</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353988</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>106.9076076597022</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>127.8892039961242</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5667369868515</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>247.7189525387651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>248.009557973362</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.02102265397494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.063489409696899</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>212.3996485935779</v>
+        <v>310.727528354184</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>193.9744277559974</v>
       </c>
     </row>
     <row r="15">
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>127.5123678957991</v>
       </c>
       <c r="H16" t="n">
-        <v>106.2415745510917</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>74.22124018907141</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>95.49203353377749</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="C2" t="n">
         <v>61445.72540377787</v>
       </c>
       <c r="D2" t="n">
-        <v>61450.26263857339</v>
+        <v>61450.26263857342</v>
       </c>
       <c r="E2" t="n">
-        <v>49200.30779757056</v>
+        <v>49200.30779757057</v>
       </c>
       <c r="F2" t="n">
-        <v>56251.18764238625</v>
+        <v>56251.18764238624</v>
       </c>
       <c r="G2" t="n">
         <v>61578.1327398213</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982131</v>
       </c>
       <c r="I2" t="n">
         <v>61578.13273982131</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982119</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982118</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982122</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.13273982123</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982121</v>
-      </c>
       <c r="M2" t="n">
+        <v>61578.13273982131</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982132</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982128</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982131</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.13273982132</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>161906.3083411361</v>
+        <v>161906.3083411338</v>
       </c>
       <c r="E3" t="n">
-        <v>758343.5965725825</v>
+        <v>758343.5965725852</v>
       </c>
       <c r="F3" t="n">
-        <v>238556.5016603838</v>
+        <v>238556.5016603831</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190075</v>
+        <v>47337.0238919007</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698664</v>
+        <v>36352.13055698662</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.0238919008</v>
+        <v>47337.02389190076</v>
       </c>
       <c r="M3" t="n">
-        <v>139558.1400101338</v>
+        <v>139558.1400101339</v>
       </c>
       <c r="N3" t="n">
-        <v>62722.15499356576</v>
+        <v>62722.1549935655</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>401722.4498602137</v>
+        <v>401722.4498602145</v>
       </c>
       <c r="E4" t="n">
-        <v>71940.62760287954</v>
+        <v>71940.62760287951</v>
       </c>
       <c r="F4" t="n">
-        <v>54179.49125338285</v>
+        <v>54179.49125338289</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.137826577</v>
       </c>
       <c r="H4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
       <c r="J4" t="n">
-        <v>95033.13778715182</v>
+        <v>95033.13778715179</v>
       </c>
       <c r="K4" t="n">
-        <v>95033.13778715181</v>
+        <v>95033.13778715176</v>
       </c>
       <c r="L4" t="n">
-        <v>95033.13778715186</v>
+        <v>95033.13778715173</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657705</v>
+        <v>93774.137826577</v>
       </c>
       <c r="O4" t="n">
+        <v>93774.13782657692</v>
+      </c>
+      <c r="P4" t="n">
         <v>93774.137826577</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37748.92160594848</v>
+        <v>37748.92160594842</v>
       </c>
       <c r="E5" t="n">
-        <v>57418.54709764819</v>
+        <v>57418.54709764823</v>
       </c>
       <c r="F5" t="n">
         <v>77544.12697928961</v>
@@ -26488,28 +26488,28 @@
         <v>82518.59730624987</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="K5" t="n">
         <v>87728.20329125514</v>
       </c>
       <c r="L5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439797.8345279533</v>
+        <v>-439802.2481058215</v>
       </c>
       <c r="C6" t="n">
-        <v>-439797.8345279534</v>
+        <v>-439802.2481058215</v>
       </c>
       <c r="D6" t="n">
-        <v>-539927.4171687248</v>
+        <v>-539931.6795054317</v>
       </c>
       <c r="E6" t="n">
-        <v>-838502.4634755396</v>
+        <v>-838915.0576402841</v>
       </c>
       <c r="F6" t="n">
-        <v>-314028.93225067</v>
+        <v>-314206.4970872505</v>
       </c>
       <c r="G6" t="n">
-        <v>-162051.6262849063</v>
+        <v>-162051.6262849062</v>
       </c>
       <c r="H6" t="n">
-        <v>-114714.6023930055</v>
+        <v>-114714.6023930056</v>
       </c>
       <c r="I6" t="n">
         <v>-114714.6023930056</v>
       </c>
       <c r="J6" t="n">
-        <v>-157535.3388955724</v>
+        <v>-157535.3388955723</v>
       </c>
       <c r="K6" t="n">
         <v>-121183.2083385857</v>
       </c>
       <c r="L6" t="n">
-        <v>-168520.2322304866</v>
+        <v>-168520.2322304864</v>
       </c>
       <c r="M6" t="n">
-        <v>-254272.7424031394</v>
+        <v>-254272.7424031395</v>
       </c>
       <c r="N6" t="n">
-        <v>-177436.7573865714</v>
+        <v>-177436.757386571</v>
       </c>
       <c r="O6" t="n">
-        <v>-114714.6023930055</v>
+        <v>-114714.6023930057</v>
       </c>
       <c r="P6" t="n">
-        <v>-114714.6023930056</v>
+        <v>-114714.6023930057</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H2" t="n">
         <v>97.68472022810495</v>
@@ -26707,25 +26707,25 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L2" t="n">
         <v>59.17127986487611</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
+        <v>97.68472022810481</v>
+      </c>
+      <c r="P2" t="n">
         <v>97.68472022810496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141507</v>
+        <v>189.0514498141481</v>
       </c>
       <c r="E3" t="n">
-        <v>880.8039540494216</v>
+        <v>880.803954049422</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.316356603199</v>
+        <v>575.3163566031994</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>970.338830450016</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="K4" t="n">
         <v>970.338830450016</v>
@@ -26820,16 +26820,16 @@
         <v>970.338830450016</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487594</v>
+        <v>59.17127986487588</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487595</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322887</v>
+        <v>38.51344036322883</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141507</v>
+        <v>189.0514498141481</v>
       </c>
       <c r="E3" t="n">
-        <v>691.7525042352709</v>
+        <v>691.7525042352739</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9727465438767</v>
+        <v>208.972746543876</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.316356603199</v>
+        <v>575.3163566031994</v>
       </c>
       <c r="F4" t="n">
-        <v>256.0850987990939</v>
+        <v>256.0850987990932</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>436.3789815554754</v>
+        <v>436.3789815554761</v>
       </c>
       <c r="N4" t="n">
-        <v>256.085098799094</v>
+        <v>256.0850987990932</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487594</v>
+        <v>59.17127986487588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.316356603199</v>
+        <v>575.3163566031994</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990939</v>
+        <v>256.0850987990932</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>331.69139242568</v>
+        <v>331.6913924256801</v>
       </c>
       <c r="I8" t="n">
-        <v>181.175764871069</v>
+        <v>181.1757648710694</v>
       </c>
       <c r="J8" t="n">
-        <v>116.541359848641</v>
+        <v>116.5413598486419</v>
       </c>
       <c r="K8" t="n">
-        <v>123.4142596508227</v>
+        <v>123.414259650824</v>
       </c>
       <c r="L8" t="n">
-        <v>115.8317952049758</v>
+        <v>115.8317952049775</v>
       </c>
       <c r="M8" t="n">
-        <v>96.89585981147781</v>
+        <v>96.89585981147965</v>
       </c>
       <c r="N8" t="n">
-        <v>93.80332362085846</v>
+        <v>93.80332362086037</v>
       </c>
       <c r="O8" t="n">
-        <v>102.0457794020928</v>
+        <v>102.0457794020946</v>
       </c>
       <c r="P8" t="n">
-        <v>121.943207624266</v>
+        <v>121.9432076242675</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.2336104729706</v>
+        <v>140.2336104729718</v>
       </c>
       <c r="R8" t="n">
-        <v>167.8448216959888</v>
+        <v>167.8448216959895</v>
       </c>
       <c r="S8" t="n">
-        <v>191.7014367716124</v>
+        <v>191.7014367716126</v>
       </c>
       <c r="T8" t="n">
         <v>219.7689240503165</v>
@@ -27947,40 +27947,40 @@
         <v>136.9368781956859</v>
       </c>
       <c r="H9" t="n">
-        <v>108.308167892244</v>
+        <v>108.3081678922441</v>
       </c>
       <c r="I9" t="n">
-        <v>85.52187168829167</v>
+        <v>85.52187168829187</v>
       </c>
       <c r="J9" t="n">
-        <v>88.4191617567929</v>
+        <v>88.41916175679344</v>
       </c>
       <c r="K9" t="n">
-        <v>72.17816324032515</v>
+        <v>72.17816324032607</v>
       </c>
       <c r="L9" t="n">
-        <v>50.2620022039352</v>
+        <v>50.26200220393643</v>
       </c>
       <c r="M9" t="n">
-        <v>39.10099377330619</v>
+        <v>39.10099377330764</v>
       </c>
       <c r="N9" t="n">
-        <v>25.58169394626421</v>
+        <v>25.58169394626569</v>
       </c>
       <c r="O9" t="n">
-        <v>45.84648974568752</v>
+        <v>45.84648974568887</v>
       </c>
       <c r="P9" t="n">
-        <v>56.32419965953312</v>
+        <v>56.32419965953422</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.07466658233244</v>
+        <v>88.07466658233315</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4322178925572</v>
+        <v>120.4322178925575</v>
       </c>
       <c r="S9" t="n">
-        <v>164.1300306324895</v>
+        <v>164.1300306324896</v>
       </c>
       <c r="T9" t="n">
         <v>198.5256882950178</v>
@@ -28026,43 +28026,43 @@
         <v>167.6500669079742</v>
       </c>
       <c r="H10" t="n">
-        <v>159.1961509022225</v>
+        <v>159.1961509022226</v>
       </c>
       <c r="I10" t="n">
-        <v>145.1983077799597</v>
+        <v>145.1983077799599</v>
       </c>
       <c r="J10" t="n">
-        <v>102.8929111901396</v>
+        <v>102.8929111901399</v>
       </c>
       <c r="K10" t="n">
-        <v>89.40542983242315</v>
+        <v>89.40542983242372</v>
       </c>
       <c r="L10" t="n">
-        <v>84.200292506474</v>
+        <v>84.20029250647471</v>
       </c>
       <c r="M10" t="n">
-        <v>85.48620773210669</v>
+        <v>85.48620773210743</v>
       </c>
       <c r="N10" t="n">
-        <v>75.5166419288135</v>
+        <v>75.51664192881424</v>
       </c>
       <c r="O10" t="n">
-        <v>90.27011317790155</v>
+        <v>90.27011317790222</v>
       </c>
       <c r="P10" t="n">
-        <v>96.4961927650909</v>
+        <v>96.49619276509148</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.9582327075091</v>
+        <v>122.9582327075095</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9647279217467</v>
+        <v>161.9647279217469</v>
       </c>
       <c r="S10" t="n">
-        <v>218.0754237862554</v>
+        <v>218.0754237862555</v>
       </c>
       <c r="T10" t="n">
-        <v>226.4889635034839</v>
+        <v>226.488963503484</v>
       </c>
       <c r="U10" t="n">
         <v>286.300434131919</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="E12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="F12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="G12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="I12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="L12" t="n">
-        <v>9.174993301450627</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>38.51344036322905</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>19.63780492263498</v>
       </c>
       <c r="P12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="R12" t="n">
-        <v>38.51344036322905</v>
+        <v>28.05062874204297</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="T12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="U12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="X12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322907</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810499</v>
+        <v>85.08100106221781</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P19" t="n">
-        <v>86.41330088048369</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R19" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="20">
@@ -28977,19 +28977,19 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>86.41330088048448</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L22" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>97.68472022810495</v>
@@ -28998,13 +28998,13 @@
         <v>97.68472022810495</v>
       </c>
       <c r="P22" t="n">
+        <v>76.32843350416024</v>
+      </c>
+      <c r="Q22" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S22" t="n">
         <v>97.68472022810495</v>
@@ -29056,7 +29056,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415996</v>
       </c>
       <c r="L25" t="n">
         <v>97.68472022810495</v>
@@ -29229,13 +29229,13 @@
         <v>97.68472022810495</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="P25" t="n">
-        <v>76.32843350416053</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="27">
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>59.17127986487611</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487537</v>
+        <v>59.17127986487611</v>
       </c>
       <c r="N32" t="n">
         <v>59.17127986487611</v>
@@ -29791,7 +29791,7 @@
         <v>59.17127986487611</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487611</v>
+        <v>59.17127986487324</v>
       </c>
       <c r="R32" t="n">
         <v>59.17127986487611</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810502</v>
+        <v>86.41330088048488</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.41330088048365</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292495</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810511</v>
+        <v>86.41330088048474</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.4133008804811</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810496</v>
+        <v>85.08100106222045</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="O43" t="n">
-        <v>86.41330088048443</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810499</v>
+        <v>76.32843350415979</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N46" t="n">
-        <v>76.32843350415968</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7600058283985952</v>
+        <v>0.7600058283985847</v>
       </c>
       <c r="H8" t="n">
-        <v>7.783409690087116</v>
+        <v>7.783409690087007</v>
       </c>
       <c r="I8" t="n">
-        <v>29.30012469933687</v>
+        <v>29.30012469933646</v>
       </c>
       <c r="J8" t="n">
-        <v>64.50454467804533</v>
+        <v>64.50454467804443</v>
       </c>
       <c r="K8" t="n">
-        <v>96.67559139415789</v>
+        <v>96.67559139415654</v>
       </c>
       <c r="L8" t="n">
-        <v>119.9346197650114</v>
+        <v>119.9346197650097</v>
       </c>
       <c r="M8" t="n">
-        <v>133.4503734157949</v>
+        <v>133.4503734157931</v>
       </c>
       <c r="N8" t="n">
-        <v>135.6097399757325</v>
+        <v>135.6097399757305</v>
       </c>
       <c r="O8" t="n">
-        <v>128.0524320195939</v>
+        <v>128.0524320195921</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2897881310036</v>
+        <v>109.2897881310021</v>
       </c>
       <c r="Q8" t="n">
-        <v>82.07207940147886</v>
+        <v>82.07207940147771</v>
       </c>
       <c r="R8" t="n">
-        <v>47.7407161181433</v>
+        <v>47.74071611814264</v>
       </c>
       <c r="S8" t="n">
-        <v>17.31863281463301</v>
+        <v>17.31863281463276</v>
       </c>
       <c r="T8" t="n">
-        <v>3.326925513814853</v>
+        <v>3.326925513814806</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06080046627188761</v>
+        <v>0.06080046627188676</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.406638967524777</v>
+        <v>0.4066389675247714</v>
       </c>
       <c r="H9" t="n">
-        <v>3.927276344252452</v>
+        <v>3.927276344252397</v>
       </c>
       <c r="I9" t="n">
-        <v>14.00050831170833</v>
+        <v>14.00050831170814</v>
       </c>
       <c r="J9" t="n">
-        <v>38.41846490987378</v>
+        <v>38.41846490987325</v>
       </c>
       <c r="K9" t="n">
-        <v>65.66327573403385</v>
+        <v>65.66327573403292</v>
       </c>
       <c r="L9" t="n">
-        <v>88.29237757593899</v>
+        <v>88.29237757593775</v>
       </c>
       <c r="M9" t="n">
-        <v>103.0330401487121</v>
+        <v>103.0330401487107</v>
       </c>
       <c r="N9" t="n">
-        <v>105.7600181370691</v>
+        <v>105.7600181370676</v>
       </c>
       <c r="O9" t="n">
-        <v>96.74975469875692</v>
+        <v>96.74975469875557</v>
       </c>
       <c r="P9" t="n">
-        <v>77.65020775479712</v>
+        <v>77.65020775479603</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.90710750368908</v>
+        <v>51.90710750368836</v>
       </c>
       <c r="R9" t="n">
-        <v>25.24728607140678</v>
+        <v>25.24728607140642</v>
       </c>
       <c r="S9" t="n">
-        <v>7.553140471348375</v>
+        <v>7.55314047134827</v>
       </c>
       <c r="T9" t="n">
-        <v>1.639040399803815</v>
+        <v>1.639040399803793</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02675256365294587</v>
+        <v>0.02675256365294549</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3409124504845341</v>
+        <v>0.3409124504845293</v>
       </c>
       <c r="H10" t="n">
-        <v>3.031021605217041</v>
+        <v>3.031021605216999</v>
       </c>
       <c r="I10" t="n">
-        <v>10.25216714729854</v>
+        <v>10.25216714729839</v>
       </c>
       <c r="J10" t="n">
-        <v>24.10251024925655</v>
+        <v>24.10251024925622</v>
       </c>
       <c r="K10" t="n">
-        <v>39.60782833811222</v>
+        <v>39.60782833811167</v>
       </c>
       <c r="L10" t="n">
-        <v>50.68438377476428</v>
+        <v>50.68438377476357</v>
       </c>
       <c r="M10" t="n">
-        <v>53.43957621549836</v>
+        <v>53.43957621549762</v>
       </c>
       <c r="N10" t="n">
-        <v>52.16890253641969</v>
+        <v>52.16890253641895</v>
       </c>
       <c r="O10" t="n">
-        <v>48.18642527394125</v>
+        <v>48.18642527394057</v>
       </c>
       <c r="P10" t="n">
-        <v>41.23181128405672</v>
+        <v>41.23181128405614</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.54676892193676</v>
+        <v>28.54676892193636</v>
       </c>
       <c r="R10" t="n">
-        <v>15.32866345542277</v>
+        <v>15.32866345542256</v>
       </c>
       <c r="S10" t="n">
-        <v>5.941174250716832</v>
+        <v>5.941174250716749</v>
       </c>
       <c r="T10" t="n">
-        <v>1.456625924797554</v>
+        <v>1.456625924797534</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0185952245718837</v>
+        <v>0.01859522457188344</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.540920418289129</v>
+        <v>3.540920418289131</v>
       </c>
       <c r="H11" t="n">
-        <v>36.26345123380356</v>
+        <v>36.26345123380357</v>
       </c>
       <c r="I11" t="n">
         <v>136.5113344260918</v>
       </c>
       <c r="J11" t="n">
-        <v>300.5311943517673</v>
+        <v>300.5311943517674</v>
       </c>
       <c r="K11" t="n">
-        <v>450.4183556579462</v>
+        <v>450.4183556579464</v>
       </c>
       <c r="L11" t="n">
-        <v>558.7837989091622</v>
+        <v>558.7837989091626</v>
       </c>
       <c r="M11" t="n">
-        <v>621.7546423979115</v>
+        <v>621.7546423979119</v>
       </c>
       <c r="N11" t="n">
-        <v>631.8152825363755</v>
+        <v>631.8152825363759</v>
       </c>
       <c r="O11" t="n">
-        <v>596.605255127013</v>
+        <v>596.6052551270133</v>
       </c>
       <c r="P11" t="n">
-        <v>509.1887823005001</v>
+        <v>509.1887823005003</v>
       </c>
       <c r="Q11" t="n">
-        <v>382.3795698205205</v>
+        <v>382.3795698205207</v>
       </c>
       <c r="R11" t="n">
-        <v>222.4273422253547</v>
+        <v>222.4273422253548</v>
       </c>
       <c r="S11" t="n">
-        <v>80.68872403176361</v>
+        <v>80.68872403176366</v>
       </c>
       <c r="T11" t="n">
-        <v>15.50037913106067</v>
+        <v>15.50037913106068</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2832736334631303</v>
+        <v>0.2832736334631304</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.894559448332718</v>
+        <v>1.894559448332719</v>
       </c>
       <c r="H12" t="n">
-        <v>18.29745572468704</v>
+        <v>18.29745572468705</v>
       </c>
       <c r="I12" t="n">
-        <v>65.22934942724491</v>
+        <v>65.22934942724494</v>
       </c>
       <c r="J12" t="n">
-        <v>178.9943205111188</v>
+        <v>178.9943205111189</v>
       </c>
       <c r="K12" t="n">
-        <v>305.9298035494109</v>
+        <v>305.9298035494111</v>
       </c>
       <c r="L12" t="n">
-        <v>411.3603749548737</v>
+        <v>411.360374954874</v>
       </c>
       <c r="M12" t="n">
-        <v>480.0381549569347</v>
+        <v>480.0381549569349</v>
       </c>
       <c r="N12" t="n">
-        <v>492.7433365205345</v>
+        <v>492.7433365205347</v>
       </c>
       <c r="O12" t="n">
-        <v>450.7638876916884</v>
+        <v>450.7638876916886</v>
       </c>
       <c r="P12" t="n">
-        <v>361.777759918903</v>
+        <v>361.7777599189032</v>
       </c>
       <c r="Q12" t="n">
-        <v>241.8388516854186</v>
+        <v>241.8388516854187</v>
       </c>
       <c r="R12" t="n">
-        <v>117.6288752219209</v>
+        <v>117.628875221921</v>
       </c>
       <c r="S12" t="n">
-        <v>35.19061080565375</v>
+        <v>35.19061080565378</v>
       </c>
       <c r="T12" t="n">
-        <v>7.63640409218319</v>
+        <v>7.636404092183194</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1246420689692578</v>
+        <v>0.1246420689692579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.588334999105514</v>
+        <v>1.588334999105515</v>
       </c>
       <c r="H13" t="n">
-        <v>14.12174208295631</v>
+        <v>14.12174208295632</v>
       </c>
       <c r="I13" t="n">
-        <v>47.76556524582766</v>
+        <v>47.76556524582768</v>
       </c>
       <c r="J13" t="n">
-        <v>112.2952844367598</v>
+        <v>112.2952844367599</v>
       </c>
       <c r="K13" t="n">
         <v>184.5356480778952</v>
       </c>
       <c r="L13" t="n">
-        <v>236.1420961397417</v>
+        <v>236.1420961397418</v>
       </c>
       <c r="M13" t="n">
-        <v>248.9787308143307</v>
+        <v>248.9787308143308</v>
       </c>
       <c r="N13" t="n">
-        <v>243.0585730903922</v>
+        <v>243.0585730903923</v>
       </c>
       <c r="O13" t="n">
-        <v>224.5039324190231</v>
+        <v>224.5039324190232</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1018984372705</v>
+        <v>192.1018984372706</v>
       </c>
       <c r="Q13" t="n">
         <v>133.0013970614627</v>
       </c>
       <c r="R13" t="n">
-        <v>71.41731732341701</v>
+        <v>71.41731732341705</v>
       </c>
       <c r="S13" t="n">
-        <v>27.68034721168427</v>
+        <v>27.68034721168428</v>
       </c>
       <c r="T13" t="n">
-        <v>6.786522268905377</v>
+        <v>6.78652226890538</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0866364544966645</v>
+        <v>0.08663645449666456</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954001</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>119.485289825081</v>
+        <v>119.4852898250811</v>
       </c>
       <c r="K11" t="n">
-        <v>230.3285046129656</v>
+        <v>230.3285046129659</v>
       </c>
       <c r="L11" t="n">
-        <v>323.017383939175</v>
+        <v>323.0173839391753</v>
       </c>
       <c r="M11" t="n">
-        <v>391.4084091706388</v>
+        <v>391.4084091706392</v>
       </c>
       <c r="N11" t="n">
-        <v>402.4022189397846</v>
+        <v>402.402218939785</v>
       </c>
       <c r="O11" t="n">
-        <v>366.5070437053263</v>
+        <v>366.5070437053265</v>
       </c>
       <c r="P11" t="n">
-        <v>277.9557865452305</v>
+        <v>277.9557865452308</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.073879946071</v>
+        <v>160.0738799460712</v>
       </c>
       <c r="R11" t="n">
-        <v>6.841804411222597</v>
+        <v>6.841804411222711</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.220409790473965</v>
+        <v>4.220409790474015</v>
       </c>
       <c r="J12" t="n">
-        <v>52.15669384445212</v>
+        <v>52.15669384445221</v>
       </c>
       <c r="K12" t="n">
-        <v>206.601804938281</v>
+        <v>206.6018049382812</v>
       </c>
       <c r="L12" t="n">
-        <v>281.9809884764502</v>
+        <v>272.8059951749998</v>
       </c>
       <c r="M12" t="n">
-        <v>376.4175613981454</v>
+        <v>337.9041210349166</v>
       </c>
       <c r="N12" t="n">
-        <v>361.4016244372011</v>
+        <v>361.4016244372015</v>
       </c>
       <c r="O12" t="n">
-        <v>308.167643247244</v>
+        <v>327.8054481698792</v>
       </c>
       <c r="P12" t="n">
-        <v>266.3167928678018</v>
+        <v>266.3167928678021</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.8570775993971</v>
+        <v>140.3705179626263</v>
       </c>
       <c r="R12" t="n">
-        <v>10.46281162118602</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.44954468331612</v>
+        <v>57.4495446833162</v>
       </c>
       <c r="K13" t="n">
-        <v>200.7795966152414</v>
+        <v>200.7795966152415</v>
       </c>
       <c r="L13" t="n">
-        <v>302.2455617632868</v>
+        <v>302.245561763287</v>
       </c>
       <c r="M13" t="n">
-        <v>327.0760481394003</v>
+        <v>327.0760481394004</v>
       </c>
       <c r="N13" t="n">
-        <v>325.7041858328498</v>
+        <v>325.7041858328499</v>
       </c>
       <c r="O13" t="n">
-        <v>287.6025006962918</v>
+        <v>287.602500696292</v>
       </c>
       <c r="P13" t="n">
-        <v>227.893898065393</v>
+        <v>227.8938980653931</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.35279417299732</v>
+        <v>85.35279417299739</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>358.2708125334271</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1468197567129</v>
+        <v>386.1468197567128</v>
       </c>
       <c r="N16" t="n">
         <v>383.3703865307691</v>
@@ -35820,7 +35820,7 @@
         <v>340.8665705858688</v>
       </c>
       <c r="P16" t="n">
-        <v>273.4705115083395</v>
+        <v>273.4705115083394</v>
       </c>
       <c r="Q16" t="n">
         <v>116.9076789011227</v>
@@ -36036,10 +36036,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
         <v>196.988613427772</v>
@@ -36048,19 +36048,19 @@
         <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511833</v>
+        <v>258.1202303852961</v>
       </c>
       <c r="O19" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P19" t="n">
-        <v>186.363808711553</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36273,19 +36273,19 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J22" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>185.7171940801515</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
         <v>270.7239495511832</v>
@@ -36294,13 +36294,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591743</v>
+        <v>176.2789413352296</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,13 +36510,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J25" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>196.988613427772</v>
+        <v>175.632326703827</v>
       </c>
       <c r="L25" t="n">
         <v>254.9673908567486</v>
@@ -36525,19 +36525,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>176.2789413352298</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202764</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L26" t="n">
-        <v>514.7613942572079</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777873</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O26" t="n">
-        <v>567.2242807530951</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P26" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q26" t="n">
         <v>309.9655846685955</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>71.1134551552189</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K28" t="n">
-        <v>158.475173064543</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L28" t="n">
-        <v>287.9820824144583</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
-        <v>406.8046592583598</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N28" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O28" t="n">
-        <v>361.5244100875158</v>
+        <v>350.108301675871</v>
       </c>
       <c r="P28" t="n">
-        <v>294.1283510099864</v>
+        <v>294.1283510099865</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.22256002501821</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>249.9582808335886</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202764</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572079</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N29" t="n">
         <v>611.4731152777874</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530951</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q29" t="n">
-        <v>309.9655846685955</v>
+        <v>309.9655846685947</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7844784071005</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.1134551552189</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K31" t="n">
-        <v>158.475173064543</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
-        <v>378.9286520350741</v>
+        <v>245.3007827352133</v>
       </c>
       <c r="M31" t="n">
         <v>406.8046592583598</v>
@@ -37002,13 +37002,13 @@
         <v>404.0282260324161</v>
       </c>
       <c r="O31" t="n">
-        <v>270.5778404668999</v>
+        <v>198.4827437216333</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1283510099864</v>
+        <v>294.1283510099865</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.22256002501821</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195013</v>
+        <v>17.59435009195019</v>
       </c>
       <c r="J32" t="n">
-        <v>249.9582808335886</v>
+        <v>249.9582808335888</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202767</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7613942572081</v>
+        <v>514.7613942572084</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951019</v>
+        <v>598.0923956951029</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777877</v>
       </c>
       <c r="O32" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530955</v>
       </c>
       <c r="P32" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842481</v>
       </c>
       <c r="Q32" t="n">
-        <v>309.9655846685955</v>
+        <v>309.9655846685928</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7844784071008</v>
+        <v>118.7844784071009</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.11345515521896</v>
+        <v>71.11345515521901</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091956</v>
+        <v>265.2189394091957</v>
       </c>
       <c r="L34" t="n">
-        <v>378.9286520350742</v>
+        <v>278.9370240579334</v>
       </c>
       <c r="M34" t="n">
-        <v>228.2949983489142</v>
+        <v>406.80465925836</v>
       </c>
       <c r="N34" t="n">
-        <v>384.8475509765913</v>
+        <v>404.0282260324162</v>
       </c>
       <c r="O34" t="n">
-        <v>361.5244100875158</v>
+        <v>198.4827437216335</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1283510099865</v>
+        <v>294.1283510099866</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.22256002501828</v>
+        <v>137.5655184027698</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>185.7171940801519</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.46458104062582</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.004807909155697e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>190.7870009687126</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.626895518448</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277722</v>
+        <v>185.7171940801518</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121433</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.4645810406233</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687138</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,31 +37932,31 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266712</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>184.3848942618875</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567485</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O43" t="n">
-        <v>225.7247647372417</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266883</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038268</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>249.3676628272379</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
